--- a/data/trans_dic/P37A$medicootras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicootras-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.00533232477543002</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.01412892198443149</v>
+        <v>0.01412892198443148</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.002173109127072609</v>
@@ -697,7 +697,7 @@
         <v>0.004819445999034281</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01344455346149034</v>
+        <v>0.01344455346149033</v>
       </c>
     </row>
     <row r="5">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005002736946147143</v>
+        <v>0.00474338664666131</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005438378584355563</v>
+        <v>0.006504359503963757</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001388903102527499</v>
+        <v>0.001389727606767779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001154997146974679</v>
+        <v>0.001271195450285455</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007587515373294432</v>
+        <v>0.007605453191714631</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02137090448806057</v>
+        <v>0.01799408503143385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02293829397158617</v>
+        <v>0.02305861865839941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01513041274914294</v>
+        <v>0.01517780196507791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03632544280770258</v>
+        <v>0.03375681333935911</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.03178132891589975</v>
+        <v>0.03095102441801073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01614599176839484</v>
+        <v>0.01816118277849917</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02687267800676509</v>
+        <v>0.02684890674352539</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01085145601920237</v>
+        <v>0.01168557109260025</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01722802660111944</v>
+        <v>0.01849008026535581</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01176546462201119</v>
+        <v>0.01236372924321013</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02488852277546692</v>
+        <v>0.02469686968894939</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.008429103615871217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006340043849395973</v>
+        <v>0.006340043849395972</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.003322786803257466</v>
@@ -846,34 +846,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002608142023549894</v>
+        <v>0.002571930780606742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001638444984981356</v>
+        <v>0.001651129119237493</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002574322305336817</v>
+        <v>0.002616635500496301</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009727065961378121</v>
+        <v>0.009915677432644179</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001201570036681316</v>
+        <v>0.001205296744961095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00257237854176221</v>
+        <v>0.002586487805708233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002486500011091461</v>
+        <v>0.002601863184522486</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006895918921419075</v>
+        <v>0.007120147798482176</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01992071495569847</v>
+        <v>0.02181870625972429</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02586074384878822</v>
+        <v>0.02598951510444524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02321192509102067</v>
+        <v>0.02015662028708951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01749273696137475</v>
+        <v>0.01755064947715872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01675028433849824</v>
+        <v>0.016668804100177</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02174744371822305</v>
+        <v>0.02387532135081272</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01844311253822131</v>
+        <v>0.01876091328137162</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0321895444262493</v>
+        <v>0.03228719116156133</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01197594727873562</v>
+        <v>0.0133159416004741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01913377884415568</v>
+        <v>0.01818290431541966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01513756857415078</v>
+        <v>0.01475272600767932</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02011917457904309</v>
+        <v>0.02091957711266952</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.001727265781359398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.007940789627628621</v>
+        <v>0.007940789627628619</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01191339464763458</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001868694473174405</v>
+        <v>0.002525211643281916</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001374109810550363</v>
+        <v>0.001371960714474853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002201630677986718</v>
+        <v>0.001186262947102592</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002997044731007058</v>
+        <v>0.00267463579063802</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01303357247712263</v>
+        <v>0.0126715637912305</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01182809548083437</v>
+        <v>0.01097086673146485</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007543528372654467</v>
+        <v>0.008579640798334754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02021477777185279</v>
+        <v>0.02163694262427993</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04166474496422071</v>
+        <v>0.04220423566424152</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03835507079156812</v>
+        <v>0.03914102123375698</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.02148635140839129</v>
+        <v>0.02287892226858437</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01334399173707293</v>
+        <v>0.01426671415427767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01504999240712148</v>
+        <v>0.0138161301698652</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006527996458041415</v>
+        <v>0.006925108682954723</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01569491511840464</v>
+        <v>0.01652516594356344</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.008781762957054387</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.00610530685447233</v>
+        <v>0.006105306854472329</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.002833516640206092</v>
@@ -1111,37 +1111,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002132450194355984</v>
+        <v>0.002390907798471347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004475615599775429</v>
+        <v>0.004455687085261313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002611850705791563</v>
+        <v>0.002474364807206716</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001210210145603428</v>
+        <v>0.0012321493750061</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005690411395004082</v>
+        <v>0.00543077733827309</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007340117054275099</v>
+        <v>0.007206094862721962</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.000433181670755121</v>
+        <v>0.0004339799450079401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.002488911230751741</v>
+        <v>0.002479938906788163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006017257022624947</v>
+        <v>0.006321625249161863</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.005726948315251067</v>
+        <v>0.005513812045236576</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.003436162653113923</v>
+        <v>0.00343747459884905</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01140167239644103</v>
+        <v>0.01116566900424081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0152808621554149</v>
+        <v>0.01563892635821395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01235993458516324</v>
+        <v>0.01256771913450828</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009681609589256686</v>
+        <v>0.009679446113564768</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01133792593309174</v>
+        <v>0.01029752423812703</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02223157712779014</v>
+        <v>0.02180845214893008</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02213266145938909</v>
+        <v>0.02182871315731834</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.004009806489796743</v>
+        <v>0.004314586640204998</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.008856898973149001</v>
+        <v>0.008660192838369348</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01553493226282228</v>
+        <v>0.01609337426124039</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01420801348465866</v>
+        <v>0.01377383932495736</v>
       </c>
     </row>
     <row r="16">
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00131962259282823</v>
+        <v>0.001253140328984371</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002703454896710213</v>
+        <v>0.002554061710675844</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007933624034954768</v>
+        <v>0.007977556916742141</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.001472225898650774</v>
+        <v>0.001486221002660423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002189855544201605</v>
+        <v>0.002046677886935592</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.005901606988320857</v>
+        <v>0.005735758136536569</v>
       </c>
     </row>
     <row r="18">
@@ -1287,37 +1287,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01312084890942119</v>
+        <v>0.01257610179757215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01268424246898922</v>
+        <v>0.01458523824211514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01440954996281076</v>
+        <v>0.0142245265434025</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01215826927932378</v>
+        <v>0.0118111906145929</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01318753769651224</v>
+        <v>0.01268451035731602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01758300003825439</v>
+        <v>0.01692002722511157</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02232719027665337</v>
+        <v>0.02399864886283043</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006453545245391729</v>
+        <v>0.006727794058071532</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.008535994890610382</v>
+        <v>0.00881658134194889</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01141697096617821</v>
+        <v>0.01152060887946038</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01601820819617892</v>
+        <v>0.01557702957230211</v>
       </c>
     </row>
     <row r="19">
@@ -1387,25 +1387,25 @@
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.004822058669075249</v>
+        <v>0.004936935893351734</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001013786840167329</v>
+        <v>0.0009362762556053487</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005674564640426299</v>
+        <v>0.005514715785746007</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.004874008804507874</v>
+        <v>0.005499203944252409</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.001381791740464105</v>
+        <v>0.001379009129240577</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.004278378048389976</v>
+        <v>0.004342331419963175</v>
       </c>
     </row>
     <row r="21">
@@ -1416,36 +1416,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01618262786115566</v>
+        <v>0.01769746319120273</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03011786794512815</v>
+        <v>0.02918500992807655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01819175785883728</v>
+        <v>0.02216837132695961</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01751568352719625</v>
+        <v>0.01784160854794286</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.009635331416977429</v>
+        <v>0.008827696189816256</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01705008741039958</v>
+        <v>0.01702750293639585</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.003070222778771986</v>
+        <v>0.002472022108220151</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01623678640666697</v>
+        <v>0.01568250736781615</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.008198577791886718</v>
+        <v>0.007846357411456867</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01350099231942568</v>
+        <v>0.01308868531207825</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.006013734651250861</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.009916145546763728</v>
+        <v>0.009916145546763729</v>
       </c>
     </row>
     <row r="23">
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0008971877241044773</v>
+        <v>0.001079775844676133</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002933974008875711</v>
+        <v>0.002827414116006991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003268713702163774</v>
+        <v>0.003248691607912143</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004384996852840732</v>
+        <v>0.003920080802487501</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0008750093683893675</v>
+        <v>0.0008555939851211304</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004872707345032294</v>
+        <v>0.005045300646184345</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.004154946517132899</v>
+        <v>0.004219097190481214</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01008299462565055</v>
+        <v>0.009963618777265487</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.001202029057986313</v>
+        <v>0.001291870395165496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.004657167062990024</v>
+        <v>0.004554840222562301</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.004371764631292362</v>
+        <v>0.004156574328231579</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.007777559094652952</v>
+        <v>0.007805423439327784</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.004776782128554015</v>
+        <v>0.004459785761023206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.008736440985414134</v>
+        <v>0.008008048936569779</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.008613273007052499</v>
+        <v>0.008738771288973109</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01070710877695746</v>
+        <v>0.01059229171596276</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.004316836343966541</v>
+        <v>0.004208441179081766</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0107618842382455</v>
+        <v>0.01145557357975045</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.009562092824066767</v>
+        <v>0.00995931465462703</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01665590498313428</v>
+        <v>0.01696037918375972</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.003600817310537459</v>
+        <v>0.003693333569489461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.008707554735525798</v>
+        <v>0.008651815165977966</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.008123879904447021</v>
+        <v>0.008178848511602282</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0122822270562472</v>
+        <v>0.01226766914532681</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2755</v>
+        <v>2612</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1873,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2656</v>
+        <v>3177</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>896</v>
+        <v>987</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7884</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="7">
@@ -1896,38 +1896,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10125</v>
+        <v>8525</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10029</v>
+        <v>10081</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6492</v>
+        <v>6513</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20001</v>
+        <v>18587</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>9994</v>
+        <v>9733</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5604</v>
+        <v>6303</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13125</v>
+        <v>13113</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8469</v>
+        <v>9120</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12950</v>
+        <v>13898</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9132</v>
+        <v>9596</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25860</v>
+        <v>25661</v>
       </c>
     </row>
     <row r="8">
@@ -2036,34 +2036,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4116</v>
+        <v>4196</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1864</v>
+        <v>1950</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6250</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="11">
@@ -2074,40 +2074,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7310</v>
+        <v>8006</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10830</v>
+        <v>10884</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8756</v>
+        <v>7604</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8453</v>
+        <v>8481</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6229</v>
+        <v>6199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7351</v>
+        <v>8070</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6866</v>
+        <v>6984</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13621</v>
+        <v>13662</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8848</v>
+        <v>9838</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14481</v>
+        <v>13761</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11346</v>
+        <v>11057</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18235</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="12">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>881</v>
+        <v>1191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1958</v>
+        <v>1055</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1975</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="15">
@@ -2252,38 +2252,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7069</v>
+        <v>6873</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7445</v>
+        <v>6905</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3937</v>
+        <v>4478</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9534</v>
+        <v>10204</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6991</v>
+        <v>7081</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9977</v>
+        <v>10182</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4029</v>
+        <v>4290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9477</v>
+        <v>10132</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13388</v>
+        <v>12290</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4491</v>
+        <v>4765</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10345</v>
+        <v>10892</v>
       </c>
     </row>
     <row r="16">
@@ -2389,37 +2389,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2472</v>
+        <v>2771</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5145</v>
+        <v>5122</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2956</v>
+        <v>2801</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4700</v>
+        <v>4485</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6321</v>
+        <v>6206</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4793</v>
+        <v>4776</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11887</v>
+        <v>12488</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11414</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="19">
@@ -2430,40 +2430,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4255</v>
+        <v>4257</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13215</v>
+        <v>12941</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17567</v>
+        <v>17979</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13990</v>
+        <v>14225</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8692</v>
+        <v>7895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18361</v>
+        <v>18011</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19061</v>
+        <v>18799</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7830</v>
+        <v>8425</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17055</v>
+        <v>16677</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>30689</v>
+        <v>31793</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28317</v>
+        <v>27452</v>
       </c>
     </row>
     <row r="20">
@@ -2579,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1996</v>
+        <v>1886</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6592</v>
+        <v>6628</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1873</v>
+        <v>1891</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2976</v>
+        <v>2781</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8255</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="23">
@@ -2609,37 +2609,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6699</v>
+        <v>6421</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7873</v>
+        <v>9053</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8184</v>
+        <v>8079</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6915</v>
+        <v>6718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10043</v>
+        <v>9660</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12981</v>
+        <v>12491</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18551</v>
+        <v>19939</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5933</v>
+        <v>6185</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10859</v>
+        <v>11216</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15515</v>
+        <v>15656</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>22406</v>
+        <v>21789</v>
       </c>
     </row>
     <row r="24">
@@ -2753,25 +2753,25 @@
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>5349</v>
+        <v>5477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1097</v>
+        <v>1013</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4791</v>
+        <v>4656</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6708</v>
+        <v>7568</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4627</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="27">
@@ -2782,36 +2782,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4826</v>
+        <v>5277</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8038</v>
+        <v>7789</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5224</v>
+        <v>6366</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>19431</v>
+        <v>19793</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10426</v>
+        <v>9552</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>14395</v>
+        <v>14376</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4750</v>
+        <v>3824</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22346</v>
+        <v>21583</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11225</v>
+        <v>10743</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14601</v>
+        <v>14156</v>
       </c>
     </row>
     <row r="28">
@@ -2914,40 +2914,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2934</v>
+        <v>3531</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10040</v>
+        <v>9675</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11067</v>
+        <v>10999</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15095</v>
+        <v>13495</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2956</v>
+        <v>2890</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17299</v>
+        <v>17911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>14674</v>
+        <v>14900</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>36656</v>
+        <v>36222</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>7991</v>
+        <v>8589</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>32470</v>
+        <v>31757</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>30241</v>
+        <v>28752</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>55049</v>
+        <v>55246</v>
       </c>
     </row>
     <row r="31">
@@ -2958,40 +2958,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15621</v>
+        <v>14584</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29895</v>
+        <v>27403</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29162</v>
+        <v>29587</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>36859</v>
+        <v>36464</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14583</v>
+        <v>14217</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>38206</v>
+        <v>40669</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>33769</v>
+        <v>35172</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>60551</v>
+        <v>61658</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>23939</v>
+        <v>24554</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>60709</v>
+        <v>60321</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>56195</v>
+        <v>56576</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>86932</v>
+        <v>86829</v>
       </c>
     </row>
     <row r="32">
